--- a/files/28_11_2022/route_number_6.xlsx
+++ b/files/28_11_2022/route_number_6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,843 +435,553 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>676383</v>
+        <v>687662</v>
       </c>
       <c r="B2">
-        <v>688213</v>
+        <v>634946</v>
       </c>
       <c r="C2">
-        <v>37.7555994</v>
+        <v>37.44286635</v>
       </c>
       <c r="D2">
-        <v>55.51114108</v>
+        <v>55.95642413</v>
       </c>
       <c r="E2">
-        <v>37.75318622</v>
+        <v>37.49530824</v>
       </c>
       <c r="F2">
-        <v>55.5052417</v>
+        <v>56.01225149</v>
       </c>
       <c r="G2">
-        <v>13.38</v>
+        <v>25.52</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>3.379999999999999</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>688213</v>
+        <v>634946</v>
       </c>
       <c r="B3">
-        <v>688343</v>
+        <v>608095</v>
       </c>
       <c r="C3">
-        <v>37.75318622</v>
+        <v>37.49530824</v>
       </c>
       <c r="D3">
-        <v>55.5052417</v>
+        <v>56.01225149</v>
       </c>
       <c r="E3">
-        <v>37.74595076</v>
+        <v>37.47194721</v>
       </c>
       <c r="F3">
-        <v>55.45084059</v>
+        <v>56.30528051</v>
       </c>
       <c r="G3">
-        <v>20.3</v>
+        <v>58.18</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>10.3</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>688343</v>
+        <v>608095</v>
       </c>
       <c r="B4">
-        <v>606531</v>
+        <v>690262</v>
       </c>
       <c r="C4">
-        <v>37.74595076</v>
+        <v>37.47194721</v>
       </c>
       <c r="D4">
-        <v>55.45084059</v>
+        <v>56.30528051</v>
       </c>
       <c r="E4">
-        <v>37.77204935</v>
+        <v>38.13449577</v>
       </c>
       <c r="F4">
-        <v>55.43771193</v>
+        <v>56.30199139</v>
       </c>
       <c r="G4">
-        <v>14.1</v>
+        <v>71.45</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>4.1</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>606531</v>
+        <v>690262</v>
       </c>
       <c r="B5">
-        <v>689143</v>
+        <v>682749</v>
       </c>
       <c r="C5">
-        <v>37.77204935</v>
+        <v>38.13449577</v>
       </c>
       <c r="D5">
-        <v>55.43771193</v>
+        <v>56.30199139</v>
       </c>
       <c r="E5">
-        <v>37.72729812</v>
+        <v>37.92689614</v>
       </c>
       <c r="F5">
-        <v>55.44068133</v>
+        <v>55.65411027</v>
       </c>
       <c r="G5">
-        <v>16.29</v>
+        <v>98.37</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>6.289999999999999</v>
+        <v>88.37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>689143</v>
+        <v>682749</v>
       </c>
       <c r="B6">
-        <v>687690</v>
+        <v>634982</v>
       </c>
       <c r="C6">
-        <v>37.72729812</v>
+        <v>37.92689614</v>
       </c>
       <c r="D6">
-        <v>55.44068133</v>
+        <v>55.65411027</v>
       </c>
       <c r="E6">
-        <v>37.69250621</v>
+        <v>37.9140594</v>
       </c>
       <c r="F6">
-        <v>55.43074391</v>
+        <v>55.58444323</v>
       </c>
       <c r="G6">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>687690</v>
+        <v>634982</v>
       </c>
       <c r="B7">
-        <v>622314</v>
+        <v>406190</v>
       </c>
       <c r="C7">
-        <v>37.69250621</v>
+        <v>37.9140594</v>
       </c>
       <c r="D7">
-        <v>55.43074391</v>
+        <v>55.58444323</v>
       </c>
       <c r="E7">
-        <v>37.61956064</v>
+        <v>37.91840838</v>
       </c>
       <c r="F7">
-        <v>55.4480981</v>
+        <v>55.58717175</v>
       </c>
       <c r="G7">
-        <v>21.08</v>
+        <v>11.33</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>11.08</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>622314</v>
+        <v>406190</v>
       </c>
       <c r="B8">
-        <v>699572</v>
+        <v>606176</v>
       </c>
       <c r="C8">
-        <v>37.61956064</v>
+        <v>37.91840838</v>
       </c>
       <c r="D8">
-        <v>55.4480981</v>
+        <v>55.58717175</v>
       </c>
       <c r="E8">
-        <v>37.56154602</v>
+        <v>37.90669721</v>
       </c>
       <c r="F8">
-        <v>55.5036913</v>
+        <v>55.58444323</v>
       </c>
       <c r="G8">
-        <v>18.08</v>
+        <v>11.54</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>8.079999999999998</v>
+        <v>1.539999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>699572</v>
+        <v>606176</v>
       </c>
       <c r="B9">
-        <v>636462</v>
+        <v>688321</v>
       </c>
       <c r="C9">
-        <v>37.56154602</v>
+        <v>37.90669721</v>
       </c>
       <c r="D9">
-        <v>55.5036913</v>
+        <v>55.58444323</v>
       </c>
       <c r="E9">
-        <v>37.581907</v>
+        <v>37.89470574</v>
       </c>
       <c r="F9">
-        <v>55.50582419</v>
+        <v>55.58571332</v>
       </c>
       <c r="G9">
-        <v>14.41</v>
+        <v>12.41</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>4.41</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>636462</v>
+        <v>688321</v>
       </c>
       <c r="B10">
-        <v>634878</v>
+        <v>635708</v>
       </c>
       <c r="C10">
-        <v>37.581907</v>
+        <v>37.89470574</v>
       </c>
       <c r="D10">
-        <v>55.50582419</v>
+        <v>55.58571332</v>
       </c>
       <c r="E10">
-        <v>37.55146845</v>
+        <v>37.96846775</v>
       </c>
       <c r="F10">
-        <v>55.44994428</v>
+        <v>55.60500129</v>
       </c>
       <c r="G10">
-        <v>21.89</v>
+        <v>27.88</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>11.89</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>634878</v>
+        <v>635708</v>
       </c>
       <c r="B11">
-        <v>682294</v>
+        <v>629753</v>
       </c>
       <c r="C11">
-        <v>37.55146845</v>
+        <v>37.96846775</v>
       </c>
       <c r="D11">
-        <v>55.44994428</v>
+        <v>55.60500129</v>
       </c>
       <c r="E11">
-        <v>37.53939815</v>
+        <v>37.95416556</v>
       </c>
       <c r="F11">
-        <v>55.43404178</v>
+        <v>55.50414032</v>
       </c>
       <c r="G11">
-        <v>14.49</v>
+        <v>33.2</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>4.49</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>682294</v>
+        <v>629753</v>
       </c>
       <c r="B12">
-        <v>635726</v>
+        <v>606171</v>
       </c>
       <c r="C12">
-        <v>37.53939815</v>
+        <v>37.95416556</v>
       </c>
       <c r="D12">
-        <v>55.43404178</v>
+        <v>55.50414032</v>
       </c>
       <c r="E12">
-        <v>37.5439267</v>
+        <v>38.44748722</v>
       </c>
       <c r="F12">
-        <v>55.42775261</v>
+        <v>55.4553619</v>
       </c>
       <c r="G12">
-        <v>12.4</v>
+        <v>64.44</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>2.4</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>635726</v>
+        <v>606171</v>
       </c>
       <c r="B13">
-        <v>634973</v>
+        <v>669376</v>
       </c>
       <c r="C13">
-        <v>37.5439267</v>
+        <v>38.44748722</v>
       </c>
       <c r="D13">
-        <v>55.42775261</v>
+        <v>55.4553619</v>
       </c>
       <c r="E13">
-        <v>37.56405994</v>
+        <v>38.63300905</v>
       </c>
       <c r="F13">
-        <v>55.41088221</v>
+        <v>55.49681088</v>
       </c>
       <c r="G13">
-        <v>14.53</v>
+        <v>38.97</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>4.530000000000001</v>
+        <v>28.97</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>634973</v>
+        <v>669376</v>
       </c>
       <c r="B14">
-        <v>634835</v>
+        <v>607090</v>
       </c>
       <c r="C14">
-        <v>37.56405994</v>
+        <v>38.63300905</v>
       </c>
       <c r="D14">
-        <v>55.41088221</v>
+        <v>55.49681088</v>
       </c>
       <c r="E14">
-        <v>37.48642894</v>
+        <v>38.72190711</v>
       </c>
       <c r="F14">
-        <v>55.4227017</v>
+        <v>55.34116262</v>
       </c>
       <c r="G14">
-        <v>20.44</v>
+        <v>39.37</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>10.44</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>634835</v>
+        <v>607090</v>
       </c>
       <c r="B15">
-        <v>627765</v>
+        <v>607023</v>
       </c>
       <c r="C15">
-        <v>37.48642894</v>
+        <v>38.72190711</v>
       </c>
       <c r="D15">
-        <v>55.4227017</v>
+        <v>55.34116262</v>
       </c>
       <c r="E15">
-        <v>37.4814379</v>
+        <v>38.68375601</v>
       </c>
       <c r="F15">
-        <v>55.41846338</v>
+        <v>55.31991257</v>
       </c>
       <c r="G15">
-        <v>11.57</v>
+        <v>17.62</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>1.57</v>
+        <v>7.620000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>627765</v>
+        <v>607023</v>
       </c>
       <c r="B16">
-        <v>635295</v>
+        <v>606514</v>
       </c>
       <c r="C16">
-        <v>37.4814379</v>
+        <v>38.68375601</v>
       </c>
       <c r="D16">
-        <v>55.41846338</v>
+        <v>55.31991257</v>
       </c>
       <c r="E16">
-        <v>37.54300697</v>
+        <v>38.65384964</v>
       </c>
       <c r="F16">
-        <v>55.47770248</v>
+        <v>55.32695175</v>
       </c>
       <c r="G16">
-        <v>26.02</v>
+        <v>14.56</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>16.02</v>
+        <v>4.559999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>635295</v>
+        <v>606514</v>
       </c>
       <c r="B17">
-        <v>676995</v>
+        <v>668467</v>
       </c>
       <c r="C17">
-        <v>37.54300697</v>
+        <v>38.65384964</v>
       </c>
       <c r="D17">
-        <v>55.47770248</v>
+        <v>55.32695175</v>
       </c>
       <c r="E17">
-        <v>37.69127991</v>
+        <v>38.78224989</v>
       </c>
       <c r="F17">
-        <v>55.51300243</v>
+        <v>55.14204198</v>
       </c>
       <c r="G17">
-        <v>31.63</v>
+        <v>48.99</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>21.63</v>
+        <v>38.99</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>676995</v>
+        <v>668467</v>
       </c>
       <c r="B18">
-        <v>676996</v>
+        <v>606575</v>
       </c>
       <c r="C18">
-        <v>37.69127991</v>
+        <v>38.78224989</v>
       </c>
       <c r="D18">
-        <v>55.51300243</v>
+        <v>55.14204198</v>
       </c>
       <c r="E18">
-        <v>37.59051738</v>
+        <v>38.77539574</v>
       </c>
       <c r="F18">
-        <v>55.61302042</v>
+        <v>55.077613</v>
       </c>
       <c r="G18">
-        <v>31.57</v>
+        <v>28.59</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>21.57</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>676996</v>
+        <v>606575</v>
       </c>
       <c r="B19">
-        <v>606057</v>
+        <v>680634</v>
       </c>
       <c r="C19">
-        <v>37.59051738</v>
+        <v>38.77539574</v>
       </c>
       <c r="D19">
-        <v>55.61302042</v>
+        <v>55.077613</v>
       </c>
       <c r="E19">
-        <v>37.67961691</v>
+        <v>38.78700973</v>
       </c>
       <c r="F19">
-        <v>55.64026182</v>
+        <v>55.07287755</v>
       </c>
       <c r="G19">
-        <v>24.15</v>
+        <v>14.71</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>14.15</v>
+        <v>4.710000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>606057</v>
+        <v>680634</v>
       </c>
       <c r="B20">
-        <v>664161</v>
+        <v>608567</v>
       </c>
       <c r="C20">
-        <v>37.67961691</v>
+        <v>38.78700973</v>
       </c>
       <c r="D20">
-        <v>55.64026182</v>
+        <v>55.07287755</v>
       </c>
       <c r="E20">
-        <v>37.74378749</v>
+        <v>38.56197994</v>
       </c>
       <c r="F20">
-        <v>55.67007408</v>
+        <v>54.86633009</v>
       </c>
       <c r="G20">
-        <v>24.49</v>
+        <v>49.5</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>664161</v>
-      </c>
-      <c r="B21">
-        <v>687671</v>
-      </c>
-      <c r="C21">
-        <v>37.74378749</v>
-      </c>
-      <c r="D21">
-        <v>55.67007408</v>
-      </c>
-      <c r="E21">
-        <v>37.76888725</v>
-      </c>
-      <c r="F21">
-        <v>55.40069077</v>
-      </c>
-      <c r="G21">
-        <v>41.38</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>31.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>687671</v>
-      </c>
-      <c r="B22">
-        <v>634873</v>
-      </c>
-      <c r="C22">
-        <v>37.76888725</v>
-      </c>
-      <c r="D22">
-        <v>55.40069077</v>
-      </c>
-      <c r="E22">
-        <v>37.80494926</v>
-      </c>
-      <c r="F22">
-        <v>55.39807174</v>
-      </c>
-      <c r="G22">
-        <v>15.55</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>5.550000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>634873</v>
-      </c>
-      <c r="B23">
-        <v>606536</v>
-      </c>
-      <c r="C23">
-        <v>37.80494926</v>
-      </c>
-      <c r="D23">
-        <v>55.39807174</v>
-      </c>
-      <c r="E23">
-        <v>37.8309775</v>
-      </c>
-      <c r="F23">
-        <v>55.2734708</v>
-      </c>
-      <c r="G23">
-        <v>30.22</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>606536</v>
-      </c>
-      <c r="B24">
-        <v>606533</v>
-      </c>
-      <c r="C24">
-        <v>37.8309775</v>
-      </c>
-      <c r="D24">
-        <v>55.2734708</v>
-      </c>
-      <c r="E24">
-        <v>37.90373657</v>
-      </c>
-      <c r="F24">
-        <v>55.2752139</v>
-      </c>
-      <c r="G24">
-        <v>25.4</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>606533</v>
-      </c>
-      <c r="B25">
-        <v>644082</v>
-      </c>
-      <c r="C25">
-        <v>37.90373657</v>
-      </c>
-      <c r="D25">
-        <v>55.2752139</v>
-      </c>
-      <c r="E25">
-        <v>37.50731723</v>
-      </c>
-      <c r="F25">
-        <v>55.36663026</v>
-      </c>
-      <c r="G25">
-        <v>53.6</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>644082</v>
-      </c>
-      <c r="B26">
-        <v>688349</v>
-      </c>
-      <c r="C26">
-        <v>37.50731723</v>
-      </c>
-      <c r="D26">
-        <v>55.36663026</v>
-      </c>
-      <c r="E26">
-        <v>37.33120726</v>
-      </c>
-      <c r="F26">
-        <v>55.44584055</v>
-      </c>
-      <c r="G26">
-        <v>40.17</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>30.17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>688349</v>
-      </c>
-      <c r="B27">
-        <v>629748</v>
-      </c>
-      <c r="C27">
-        <v>37.33120726</v>
-      </c>
-      <c r="D27">
-        <v>55.44584055</v>
-      </c>
-      <c r="E27">
-        <v>37.32710791</v>
-      </c>
-      <c r="F27">
-        <v>55.49085018</v>
-      </c>
-      <c r="G27">
-        <v>20.06</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>629748</v>
-      </c>
-      <c r="B28">
-        <v>634938</v>
-      </c>
-      <c r="C28">
-        <v>37.32710791</v>
-      </c>
-      <c r="D28">
-        <v>55.49085018</v>
-      </c>
-      <c r="E28">
-        <v>37.30486807</v>
-      </c>
-      <c r="F28">
-        <v>55.48449093</v>
-      </c>
-      <c r="G28">
-        <v>14.82</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>634938</v>
-      </c>
-      <c r="B29">
-        <v>635757</v>
-      </c>
-      <c r="C29">
-        <v>37.30486807</v>
-      </c>
-      <c r="D29">
-        <v>55.48449093</v>
-      </c>
-      <c r="E29">
-        <v>37.06813941</v>
-      </c>
-      <c r="F29">
-        <v>55.53429189</v>
-      </c>
-      <c r="G29">
-        <v>33.68</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>635757</v>
-      </c>
-      <c r="B30">
-        <v>677537</v>
-      </c>
-      <c r="C30">
-        <v>37.06813941</v>
-      </c>
-      <c r="D30">
-        <v>55.53429189</v>
-      </c>
-      <c r="E30">
-        <v>36.72558973</v>
-      </c>
-      <c r="F30">
-        <v>55.38492405</v>
-      </c>
-      <c r="G30">
-        <v>41.02</v>
-      </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>31.02</v>
+        <v>39.5</v>
       </c>
     </row>
   </sheetData>
